--- a/output/intraday/riepilogo_intraday_2025-12-09.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-12-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,10 +694,10 @@
         <v>45999</v>
       </c>
       <c r="C2" t="n">
-        <v>164.5</v>
+        <v>164.82</v>
       </c>
       <c r="D2" t="n">
-        <v>4800000</v>
+        <v>4810000</v>
       </c>
       <c r="E2" t="n">
         <v>670000</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-13.18%</t>
+          <t>-13.28%</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -856,7 +856,7 @@
         <v>45.62</v>
       </c>
       <c r="D3" t="n">
-        <v>702990000</v>
+        <v>703000000</v>
       </c>
       <c r="E3" t="n">
         <v>48000000</v>
@@ -1012,7 +1012,7 @@
         <v>45999</v>
       </c>
       <c r="C4" t="n">
-        <v>62.5</v>
+        <v>60.83</v>
       </c>
       <c r="D4" t="n">
         <v>37550000</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-14.36%</t>
+          <t>-13.47%</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1171,7 +1171,7 @@
         <v>45999</v>
       </c>
       <c r="C5" t="n">
-        <v>73.22</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>3290000</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-22.87%</t>
+          <t>-22.63%</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1318,6 +1318,165 @@
       </c>
       <c r="AW5" t="n">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TWG</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13700000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>410000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>460000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>131.44%</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13201340</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-12-08 14:43:00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2025-12-08 09:49:00</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2025-12-08 04:20:00</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3352010</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3494625</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3986094</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>4398310</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4919318</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>5084604</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>7936570</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>19.05</v>
       </c>
     </row>
   </sheetData>

--- a/output/intraday/riepilogo_intraday_2025-12-09.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-12-09.xlsx
@@ -757,7 +757,7 @@
         <v>4.65</v>
       </c>
       <c r="V2" t="n">
-        <v>8.1</v>
+        <v>8.09</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>

--- a/output/intraday/riepilogo_intraday_2025-12-09.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-12-09.xlsx
@@ -757,7 +757,7 @@
         <v>4.65</v>
       </c>
       <c r="V2" t="n">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>

--- a/output/intraday/riepilogo_intraday_2025-12-09.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-12-09.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,795 +687,948 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CETX</t>
+          <t>BDRX</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="C2" t="n">
-        <v>164.82</v>
+        <v>43.85</v>
       </c>
       <c r="D2" t="n">
-        <v>4810000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>670000</v>
-      </c>
+        <v>5460000</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>680000</v>
+        <v>620000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-13.28%</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.35</v>
-      </c>
+          <t>21.38%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14.2</v>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>8.779999999999999</v>
+        <v>7.36</v>
       </c>
       <c r="L2" t="n">
-        <v>8.130000000000001</v>
+        <v>7.25</v>
       </c>
       <c r="M2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="N2" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="O2" t="n">
-        <v>7.07</v>
+        <v>8.76</v>
       </c>
       <c r="P2" t="n">
-        <v>167417348</v>
+        <v>23978905</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-12-08 09:36:00</t>
+          <t>2025-12-08 15:57:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-12-08 10:49:00</t>
+          <t>2025-12-08 10:12:00</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55</v>
+        <v>14.9</v>
       </c>
       <c r="U2" t="n">
-        <v>4.65</v>
+        <v>5.74</v>
       </c>
       <c r="V2" t="n">
-        <v>8.1</v>
+        <v>7.31</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-12-08 06:04:00</t>
+          <t>2025-12-08 06:47:00</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>9.15</v>
+        <v>7.43</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.029999999999999</v>
+        <v>7.22</v>
       </c>
       <c r="AA2" t="n">
-        <v>30672472</v>
+        <v>4974224</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.15</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.029999999999999</v>
+        <v>7.22</v>
       </c>
       <c r="AD2" t="n">
-        <v>30710538</v>
+        <v>5005445</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>34157892</v>
+        <v>5791074</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.59</v>
+        <v>6.36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>71041494</v>
+        <v>6066382</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.82</v>
+        <v>6.68</v>
       </c>
       <c r="AL2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="AN2" t="n">
-        <v>74122296</v>
+        <v>6254977</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.39</v>
+        <v>7.08</v>
       </c>
       <c r="AP2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="AR2" t="n">
-        <v>79179197</v>
+        <v>6389913</v>
       </c>
       <c r="AS2" t="n">
-        <v>6.83</v>
+        <v>7.28</v>
       </c>
       <c r="AT2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.84</v>
+        <v>6.36</v>
       </c>
       <c r="AV2" t="n">
-        <v>154817013</v>
+        <v>14810904</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FULC</t>
+          <t>CETX</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="C3" t="n">
-        <v>45.62</v>
+        <v>164.82</v>
       </c>
       <c r="D3" t="n">
-        <v>703000000</v>
+        <v>4810000</v>
       </c>
       <c r="E3" t="n">
-        <v>48000000</v>
+        <v>670000</v>
       </c>
       <c r="F3" t="n">
-        <v>54110000</v>
+        <v>680000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t>-13.28%</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.3</v>
+        <v>1.35</v>
       </c>
       <c r="I3" t="n">
-        <v>89.92</v>
+        <v>5.15</v>
       </c>
       <c r="J3" t="n">
-        <v>7.43</v>
+        <v>14.2</v>
       </c>
       <c r="K3" t="n">
-        <v>12.95</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>12.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>15.74</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>12.74</v>
+        <v>4.84</v>
       </c>
       <c r="O3" t="n">
-        <v>13</v>
+        <v>7.07</v>
       </c>
       <c r="P3" t="n">
-        <v>57049069</v>
+        <v>167417348</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-12-08 12:31:00</t>
+          <t>2025-12-08 09:36:00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-12-08 09:30:00</t>
+          <t>2025-12-08 10:49:00</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>10.99</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>16.47</v>
+        <v>20.55</v>
       </c>
       <c r="U3" t="n">
-        <v>10.99</v>
+        <v>4.65</v>
       </c>
       <c r="V3" t="n">
-        <v>12.88</v>
+        <v>8.09</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-12-08 08:00:00</t>
+          <t>2025-12-08 06:04:00</t>
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>13.1</v>
+        <v>9.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.74</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>5401886</v>
+        <v>30672472</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.74</v>
+        <v>9.15</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.74</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>5697284</v>
+        <v>30710538</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.74</v>
+        <v>7.11</v>
       </c>
       <c r="AG3" t="n">
-        <v>7458438</v>
+        <v>34157892</v>
       </c>
       <c r="AH3" t="n">
-        <v>14.75</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.74</v>
+        <v>5.59</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8754295</v>
+        <v>71041494</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>5.82</v>
       </c>
       <c r="AL3" t="n">
-        <v>14.87</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AM3" t="n">
-        <v>12.74</v>
+        <v>4.84</v>
       </c>
       <c r="AN3" t="n">
-        <v>9926857</v>
+        <v>74122296</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.47</v>
+        <v>5.39</v>
       </c>
       <c r="AP3" t="n">
-        <v>14.87</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12.74</v>
+        <v>4.84</v>
       </c>
       <c r="AR3" t="n">
-        <v>16439756</v>
+        <v>79179197</v>
       </c>
       <c r="AS3" t="n">
-        <v>14.4</v>
+        <v>6.83</v>
       </c>
       <c r="AT3" t="n">
-        <v>15.74</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>12.74</v>
+        <v>4.84</v>
       </c>
       <c r="AV3" t="n">
-        <v>26263184</v>
+        <v>154817013</v>
       </c>
       <c r="AW3" t="n">
-        <v>14.6</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IBIO</t>
+          <t>FULC</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="C4" t="n">
-        <v>60.83</v>
+        <v>45.62</v>
       </c>
       <c r="D4" t="n">
-        <v>37550000</v>
+        <v>703000000</v>
       </c>
       <c r="E4" t="n">
-        <v>21870000</v>
+        <v>48000000</v>
       </c>
       <c r="F4" t="n">
-        <v>22490000</v>
+        <v>54110000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-13.47%</t>
+          <t>0.23%</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>11.3</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62</v>
+        <v>89.92</v>
       </c>
       <c r="J4" t="n">
-        <v>5.37</v>
+        <v>7.43</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85</v>
+        <v>12.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.91</v>
+        <v>12.85</v>
       </c>
       <c r="M4" t="n">
-        <v>2.28</v>
+        <v>15.74</v>
       </c>
       <c r="N4" t="n">
-        <v>1.54</v>
+        <v>12.74</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>13</v>
       </c>
       <c r="P4" t="n">
-        <v>320798411</v>
+        <v>57049069</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-12-08 09:45:00</t>
+          <t>2025-12-08 12:31:00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2025-12-08 10:39:00</t>
+          <t>2025-12-08 09:30:00</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1.26</v>
+        <v>10.99</v>
       </c>
       <c r="T4" t="n">
-        <v>2.42</v>
+        <v>16.47</v>
       </c>
       <c r="U4" t="n">
-        <v>1.2</v>
+        <v>10.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>12.88</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025-12-08 09:23:00</t>
+          <t>2025-12-08 08:00:00</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1.95</v>
+        <v>13.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.8</v>
+        <v>12.74</v>
       </c>
       <c r="AA4" t="n">
-        <v>22995556</v>
+        <v>5401886</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.95</v>
+        <v>13.74</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.63</v>
+        <v>12.74</v>
       </c>
       <c r="AD4" t="n">
-        <v>26929135</v>
+        <v>5697284</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.28</v>
+        <v>14.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.63</v>
+        <v>12.74</v>
       </c>
       <c r="AG4" t="n">
-        <v>48214530</v>
+        <v>7458438</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.28</v>
+        <v>14.75</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.57</v>
+        <v>12.74</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80484093</v>
+        <v>8754295</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.6</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.28</v>
+        <v>14.87</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.54</v>
+        <v>12.74</v>
       </c>
       <c r="AN4" t="n">
-        <v>84791426</v>
+        <v>9926857</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.75</v>
+        <v>14.47</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.28</v>
+        <v>14.87</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.54</v>
+        <v>12.74</v>
       </c>
       <c r="AR4" t="n">
-        <v>91541437</v>
+        <v>16439756</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.76</v>
+        <v>14.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.28</v>
+        <v>15.74</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.54</v>
+        <v>12.74</v>
       </c>
       <c r="AV4" t="n">
-        <v>203572541</v>
+        <v>26263184</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.78</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PAVS</t>
+          <t>IBIO</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="C5" t="n">
-        <v>72.68000000000001</v>
+        <v>60.83</v>
       </c>
       <c r="D5" t="n">
-        <v>3290000</v>
+        <v>37550000</v>
       </c>
       <c r="E5" t="n">
-        <v>6720000</v>
+        <v>21870000</v>
       </c>
       <c r="F5" t="n">
-        <v>66720000</v>
+        <v>22490000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-22.63%</t>
+          <t>-13.47%</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>90.01000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09</v>
+        <v>25.62</v>
       </c>
       <c r="J5" t="n">
-        <v>1.28</v>
+        <v>5.37</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06</v>
+        <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04</v>
+        <v>1.54</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05</v>
+        <v>1.68</v>
       </c>
       <c r="P5" t="n">
-        <v>13221092539</v>
+        <v>320798411</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-12-08 09:34:00</t>
+          <t>2025-12-08 09:45:00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2025-12-08 13:48:00</t>
+          <t>2025-12-08 10:39:00</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.05</v>
+        <v>1.26</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04</v>
+        <v>1.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06</v>
+        <v>1.93</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-12-08 04:13:00</t>
+          <t>2025-12-08 09:23:00</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>0.06</v>
+        <v>1.95</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>692331834</v>
+        <v>22995556</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06</v>
+        <v>1.63</v>
       </c>
       <c r="AD5" t="n">
-        <v>724354708</v>
+        <v>26929135</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05</v>
+        <v>1.63</v>
       </c>
       <c r="AG5" t="n">
-        <v>1126082511</v>
+        <v>48214530</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05</v>
+        <v>1.57</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1887369004</v>
+        <v>80484093</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05</v>
+        <v>1.6</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="AN5" t="n">
-        <v>2303972608</v>
+        <v>84791426</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.05</v>
+        <v>1.75</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="AR5" t="n">
-        <v>3126502169</v>
+        <v>91541437</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.06</v>
+        <v>1.76</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.05</v>
+        <v>1.54</v>
       </c>
       <c r="AV5" t="n">
-        <v>9837934515</v>
+        <v>203572541</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.04</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TWG</t>
+          <t>PAVS</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="C6" t="n">
-        <v>58.24</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>13700000</v>
+        <v>3290000</v>
       </c>
       <c r="E6" t="n">
-        <v>410000</v>
+        <v>6720000</v>
       </c>
       <c r="F6" t="n">
-        <v>460000</v>
+        <v>66720000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>131.44%</t>
+          <t>-22.63%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>34.02</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J6" t="n">
-        <v>3.84</v>
+        <v>1.28</v>
       </c>
       <c r="K6" t="n">
-        <v>9.550000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L6" t="n">
-        <v>9.51</v>
+        <v>0.06</v>
       </c>
       <c r="M6" t="n">
-        <v>26.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>8.619999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="O6" t="n">
-        <v>19.35</v>
+        <v>0.05</v>
       </c>
       <c r="P6" t="n">
-        <v>13201340</v>
+        <v>13221092539</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-12-08 14:43:00</t>
+          <t>2025-12-08 09:34:00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2025-12-08 09:49:00</t>
+          <t>2025-12-08 13:48:00</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>11.3</v>
+        <v>0.05</v>
       </c>
       <c r="T6" t="n">
-        <v>15.89</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>0.04</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>0.06</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>2025-12-08 04:13:00</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>692331834</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>724354708</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1126082511</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1887369004</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2303972608</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>3126502169</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>9837934515</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TWG</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13700000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>410000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>460000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>131.44%</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>34.02</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13201340</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2025-12-08 14:43:00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2025-12-08 09:49:00</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
           <t>2025-12-08 04:20:00</t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>9.76</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA7" t="n">
         <v>3352010</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB7" t="n">
         <v>10.59</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC7" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD7" t="n">
         <v>3494625</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE7" t="n">
         <v>10.99</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF7" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG7" t="n">
         <v>3986094</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH7" t="n">
         <v>10.99</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI7" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ7" t="n">
         <v>4398310</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK7" t="n">
         <v>9.99</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL7" t="n">
         <v>11.55</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM7" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN7" t="n">
         <v>4919318</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO7" t="n">
         <v>10.04</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP7" t="n">
         <v>11.55</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ7" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR7" t="n">
         <v>5084604</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS7" t="n">
         <v>11.21</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT7" t="n">
         <v>20</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU7" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV7" t="n">
         <v>7936570</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW7" t="n">
         <v>19.05</v>
       </c>
     </row>
